--- a/Invoicing/QIE Master.xlsx
+++ b/Invoicing/QIE Master.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IGOC\Integrated G Drive\Integrated G Drive\1. Finance\1. EOM Reporting\2. QIE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\IGOC-Workspace\Invoicing\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49B3302-0475-44CC-83C4-4A50D2E3BB7B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12936" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27429" windowHeight="11023" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Front Sheet" sheetId="3" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <sheet name="1806" sheetId="5" r:id="rId5"/>
     <sheet name="Monthly Template" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -208,7 +209,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
@@ -473,7 +474,19 @@
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="9">
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
@@ -503,164 +516,172 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B3:G44" totalsRowShown="0">
-  <autoFilter ref="B3:G44"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table4" displayName="Table4" ref="B3:G44" totalsRowShown="0">
+  <autoFilter ref="B3:G44" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Week #"/>
-    <tableColumn id="2" name="Suppliers" dataDxfId="0" dataCellStyle="Currency">
-      <calculatedColumnFormula>SUMIF('1803'!N:N,Table4[[#This Row],[Week '#]],Table1[Suppliers])</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Week #"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Suppliers" dataDxfId="4" dataCellStyle="Currency">
+      <calculatedColumnFormula>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Suppliers]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="GST/PAYG/Super" dataCellStyle="Currency"/>
-    <tableColumn id="4" name="Overdraft" dataCellStyle="Currency"/>
-    <tableColumn id="5" name="Overhead" dataCellStyle="Currency"/>
-    <tableColumn id="6" name="Savings" dataCellStyle="Currency"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="GST/PAYG/Super" dataDxfId="3" dataCellStyle="Currency">
+      <calculatedColumnFormula>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[GST/PAYG/Super]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Overdraft" dataDxfId="2" dataCellStyle="Currency">
+      <calculatedColumnFormula>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overdraft]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Overhead" dataDxfId="1" dataCellStyle="Currency">
+      <calculatedColumnFormula>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overhead]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Savings" dataDxfId="0" dataCellStyle="Currency">
+      <calculatedColumnFormula>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Savings]])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:T39" totalsRowShown="0">
-  <autoFilter ref="B4:T39"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="B4:T39" totalsRowShown="0">
+  <autoFilter ref="B4:T39" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="Invoice #"/>
-    <tableColumn id="2" name="Job #"/>
-    <tableColumn id="3" name="Client"/>
-    <tableColumn id="4" name=" Cost "/>
-    <tableColumn id="5" name="Sell"/>
-    <tableColumn id="6" name="GST"/>
-    <tableColumn id="7" name="Cost"/>
-    <tableColumn id="8" name="Hours"/>
-    <tableColumn id="9" name=" Sell "/>
-    <tableColumn id="10" name=" Pre "/>
-    <tableColumn id="11" name="GST $$"/>
-    <tableColumn id="12" name="Invoice Ttl"/>
-    <tableColumn id="19" name="Weeklookup" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Invoice #"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Job #"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Client"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name=" Cost "/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Sell"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="GST"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Cost"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Hours"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name=" Sell "/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name=" Pre "/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="GST $$"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Invoice Ttl"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" name="Weeklookup" dataDxfId="8">
       <calculatedColumnFormula>Table1[[#This Row],[Week]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Suppliers" dataCellStyle="Currency"/>
-    <tableColumn id="14" name="GST/PAYG/Super" dataCellStyle="Currency"/>
-    <tableColumn id="15" name="Overdraft" dataCellStyle="Currency"/>
-    <tableColumn id="16" name="Overhead" dataCellStyle="Currency"/>
-    <tableColumn id="17" name="Savings" dataCellStyle="Currency"/>
-    <tableColumn id="18" name="Week"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Suppliers" dataCellStyle="Currency"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="GST/PAYG/Super" dataCellStyle="Currency"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="Overdraft" dataCellStyle="Currency"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="Overhead" dataCellStyle="Currency"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="Savings" dataCellStyle="Currency"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="Week"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B4:T61" totalsRowShown="0">
-  <autoFilter ref="B4:T61"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="B4:T61" totalsRowShown="0">
+  <autoFilter ref="B4:T61" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="Invoice #"/>
-    <tableColumn id="2" name="Job #"/>
-    <tableColumn id="3" name="Client"/>
-    <tableColumn id="4" name=" Cost "/>
-    <tableColumn id="5" name="Sell"/>
-    <tableColumn id="6" name="GST"/>
-    <tableColumn id="7" name="Cost"/>
-    <tableColumn id="8" name="Hours"/>
-    <tableColumn id="9" name=" Sell "/>
-    <tableColumn id="10" name=" Pre "/>
-    <tableColumn id="11" name="GST $$"/>
-    <tableColumn id="12" name="Invoice Ttl"/>
-    <tableColumn id="19" name="Weeklookup" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Invoice #"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Job #"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Client"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name=" Cost "/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Sell"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="GST"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Cost"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Hours"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name=" Sell "/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name=" Pre "/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="GST $$"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="Invoice Ttl"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0200-000013000000}" name="Weeklookup" dataDxfId="7">
       <calculatedColumnFormula>Table3[[#This Row],[Week]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Suppliers" dataCellStyle="Currency"/>
-    <tableColumn id="14" name="GST/PAYG/Super" dataCellStyle="Currency"/>
-    <tableColumn id="15" name="Overdraft" dataCellStyle="Currency"/>
-    <tableColumn id="16" name="Overhead" dataCellStyle="Currency"/>
-    <tableColumn id="17" name="Savings" dataCellStyle="Currency"/>
-    <tableColumn id="18" name="Week"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="Suppliers" dataCellStyle="Currency"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="GST/PAYG/Super" dataCellStyle="Currency"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="Overdraft" dataCellStyle="Currency"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="Overhead" dataCellStyle="Currency"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="Savings" dataCellStyle="Currency"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" name="Week"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table37" displayName="Table37" ref="B4:T61" totalsRowShown="0">
-  <autoFilter ref="B4:T61"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table37" displayName="Table37" ref="B4:T61" totalsRowShown="0">
+  <autoFilter ref="B4:T61" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="Invoice #"/>
-    <tableColumn id="2" name="Job #"/>
-    <tableColumn id="3" name="Client"/>
-    <tableColumn id="4" name=" Cost "/>
-    <tableColumn id="5" name="Sell"/>
-    <tableColumn id="6" name="GST"/>
-    <tableColumn id="7" name="Cost"/>
-    <tableColumn id="8" name="Hours"/>
-    <tableColumn id="9" name=" Sell "/>
-    <tableColumn id="10" name=" Pre "/>
-    <tableColumn id="11" name="GST $$"/>
-    <tableColumn id="12" name="Invoice Ttl"/>
-    <tableColumn id="19" name="Weeklookup" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Invoice #"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Job #"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Client"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name=" Cost "/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Sell"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="GST"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Cost"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Hours"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name=" Sell "/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name=" Pre "/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="GST $$"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="Invoice Ttl"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0300-000013000000}" name="Weeklookup" dataDxfId="6">
       <calculatedColumnFormula>Table37[[#This Row],[Week]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Suppliers" dataCellStyle="Currency"/>
-    <tableColumn id="14" name="GST/PAYG/Super" dataCellStyle="Currency"/>
-    <tableColumn id="15" name="Overdraft" dataCellStyle="Currency"/>
-    <tableColumn id="16" name="Overhead" dataCellStyle="Currency"/>
-    <tableColumn id="17" name="Savings" dataCellStyle="Currency"/>
-    <tableColumn id="18" name="Week"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="Suppliers" dataCellStyle="Currency"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" name="GST/PAYG/Super" dataCellStyle="Currency"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0300-00000F000000}" name="Overdraft" dataCellStyle="Currency"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0300-000010000000}" name="Overhead" dataCellStyle="Currency"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0300-000011000000}" name="Savings" dataCellStyle="Currency"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0300-000012000000}" name="Week"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table38" displayName="Table38" ref="B4:T61" totalsRowShown="0">
-  <autoFilter ref="B4:T61"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table38" displayName="Table38" ref="B4:T61" totalsRowShown="0">
+  <autoFilter ref="B4:T61" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="Invoice #"/>
-    <tableColumn id="2" name="Job #"/>
-    <tableColumn id="3" name="Client"/>
-    <tableColumn id="4" name=" Cost "/>
-    <tableColumn id="5" name="Sell"/>
-    <tableColumn id="6" name="GST"/>
-    <tableColumn id="7" name="Cost"/>
-    <tableColumn id="8" name="Hours"/>
-    <tableColumn id="9" name=" Sell "/>
-    <tableColumn id="10" name=" Pre "/>
-    <tableColumn id="11" name="GST $$"/>
-    <tableColumn id="12" name="Invoice Ttl"/>
-    <tableColumn id="19" name="Weeklookup" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Invoice #"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Job #"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Client"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name=" Cost "/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Sell"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="GST"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Cost"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Hours"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name=" Sell "/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name=" Pre "/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="GST $$"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="Invoice Ttl"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0400-000013000000}" name="Weeklookup" dataDxfId="5">
       <calculatedColumnFormula>Table38[[#This Row],[Week]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Suppliers" dataCellStyle="Currency"/>
-    <tableColumn id="14" name="GST/PAYG/Super" dataCellStyle="Currency"/>
-    <tableColumn id="15" name="Overdraft" dataCellStyle="Currency"/>
-    <tableColumn id="16" name="Overhead" dataCellStyle="Currency"/>
-    <tableColumn id="17" name="Savings" dataCellStyle="Currency"/>
-    <tableColumn id="18" name="Week"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0400-00000D000000}" name="Suppliers" dataCellStyle="Currency"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0400-00000E000000}" name="GST/PAYG/Super" dataCellStyle="Currency"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0400-00000F000000}" name="Overdraft" dataCellStyle="Currency"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0400-000010000000}" name="Overhead" dataCellStyle="Currency"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0400-000011000000}" name="Savings" dataCellStyle="Currency"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0400-000012000000}" name="Week"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table389" displayName="Table389" ref="B4:S61" totalsRowShown="0">
-  <autoFilter ref="B4:S61"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table389" displayName="Table389" ref="B4:S61" totalsRowShown="0">
+  <autoFilter ref="B4:S61" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="18">
-    <tableColumn id="1" name="Invoice #"/>
-    <tableColumn id="2" name="Job #"/>
-    <tableColumn id="3" name="Client"/>
-    <tableColumn id="4" name=" Cost "/>
-    <tableColumn id="5" name="Sell"/>
-    <tableColumn id="6" name="GST"/>
-    <tableColumn id="7" name="Cost"/>
-    <tableColumn id="8" name="Hours"/>
-    <tableColumn id="9" name=" Sell "/>
-    <tableColumn id="10" name=" Pre "/>
-    <tableColumn id="11" name="GST $$"/>
-    <tableColumn id="12" name="Invoice Ttl"/>
-    <tableColumn id="13" name="Suppliers" dataCellStyle="Currency"/>
-    <tableColumn id="14" name="GST/PAYG/Super" dataCellStyle="Currency"/>
-    <tableColumn id="15" name="Overdraft" dataCellStyle="Currency"/>
-    <tableColumn id="16" name="Overhead" dataCellStyle="Currency"/>
-    <tableColumn id="17" name="Savings" dataCellStyle="Currency"/>
-    <tableColumn id="18" name="Week"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Invoice #"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Job #"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Client"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name=" Cost "/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Sell"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="GST"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Cost"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Hours"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name=" Sell "/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name=" Pre "/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="GST $$"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="Invoice Ttl"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0500-00000D000000}" name="Suppliers" dataCellStyle="Currency"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0500-00000E000000}" name="GST/PAYG/Super" dataCellStyle="Currency"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0500-00000F000000}" name="Overdraft" dataCellStyle="Currency"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0500-000010000000}" name="Overhead" dataCellStyle="Currency"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0500-000011000000}" name="Savings" dataCellStyle="Currency"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0500-000012000000}" name="Week"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -928,20 +949,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:G44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="7" width="18.6640625" style="4" customWidth="1"/>
+    <col min="3" max="7" width="18.69140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>23</v>
       </c>
@@ -961,372 +982,1028 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>16</v>
       </c>
       <c r="C4" s="4">
-        <f ca="1">SUMIF('1803'!N:N,Table4[[#This Row],[Week '#]],Table1[Suppliers])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Suppliers]])</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[GST/PAYG/Super]])</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overdraft]])</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overhead]])</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Savings]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>17</v>
       </c>
       <c r="C5" s="4">
-        <f ca="1">SUMIF('1803'!N:N,Table4[[#This Row],[Week '#]],Table1[Suppliers])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Suppliers]])</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[GST/PAYG/Super]])</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overdraft]])</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overhead]])</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Savings]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>18</v>
       </c>
       <c r="C6" s="4">
-        <f ca="1">SUMIF('1803'!N:N,Table4[[#This Row],[Week '#]],Table1[Suppliers])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Suppliers]])</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[GST/PAYG/Super]])</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overdraft]])</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overhead]])</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Savings]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>19</v>
       </c>
       <c r="C7" s="4">
-        <f ca="1">SUMIF('1803'!N:N,Table4[[#This Row],[Week '#]],Table1[Suppliers])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Suppliers]])</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[GST/PAYG/Super]])</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overdraft]])</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overhead]])</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Savings]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>20</v>
       </c>
       <c r="C8" s="4">
-        <f ca="1">SUMIF('1803'!N:N,Table4[[#This Row],[Week '#]],Table1[Suppliers])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Suppliers]])</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[GST/PAYG/Super]])</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overdraft]])</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overhead]])</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Savings]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>21</v>
       </c>
       <c r="C9" s="4">
-        <f ca="1">SUMIF('1803'!N:N,Table4[[#This Row],[Week '#]],Table1[Suppliers])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Suppliers]])</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[GST/PAYG/Super]])</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overdraft]])</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overhead]])</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Savings]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>22</v>
       </c>
       <c r="C10" s="4">
-        <f ca="1">SUMIF('1803'!N:N,Table4[[#This Row],[Week '#]],Table1[Suppliers])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Suppliers]])</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[GST/PAYG/Super]])</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overdraft]])</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overhead]])</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Savings]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>23</v>
       </c>
       <c r="C11" s="4">
-        <f ca="1">SUMIF('1803'!N:N,Table4[[#This Row],[Week '#]],Table1[Suppliers])</f>
-        <v>1652.4199999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Suppliers]])</f>
+        <v>4073.65</v>
+      </c>
+      <c r="D11" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[GST/PAYG/Super]])</f>
+        <v>164.93906060606056</v>
+      </c>
+      <c r="E11" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overdraft]])</f>
+        <v>272.47036363636357</v>
+      </c>
+      <c r="F11" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overhead]])</f>
+        <v>232.89547474747476</v>
+      </c>
+      <c r="G11" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Savings]])</f>
+        <v>-639.85489898989908</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>24</v>
       </c>
       <c r="C12" s="4">
-        <f ca="1">SUMIF('1803'!N:N,Table4[[#This Row],[Week '#]],Table1[Suppliers])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Suppliers]])</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[GST/PAYG/Super]])</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overdraft]])</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overhead]])</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Savings]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13">
         <v>25</v>
       </c>
       <c r="C13" s="4">
-        <f ca="1">SUMIF('1803'!N:N,Table4[[#This Row],[Week '#]],Table1[Suppliers])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Suppliers]])</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[GST/PAYG/Super]])</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overdraft]])</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overhead]])</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Savings]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14">
         <v>26</v>
       </c>
       <c r="C14" s="4">
-        <f ca="1">SUMIF('1803'!N:N,Table4[[#This Row],[Week '#]],Table1[Suppliers])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Suppliers]])</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[GST/PAYG/Super]])</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overdraft]])</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overhead]])</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Savings]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15">
         <v>27</v>
       </c>
       <c r="C15" s="4">
-        <f ca="1">SUMIF('1803'!N:N,Table4[[#This Row],[Week '#]],Table1[Suppliers])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Suppliers]])</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[GST/PAYG/Super]])</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overdraft]])</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overhead]])</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Savings]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B16">
         <v>28</v>
       </c>
       <c r="C16" s="4">
-        <f ca="1">SUMIF('1803'!N:N,Table4[[#This Row],[Week '#]],Table1[Suppliers])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Suppliers]])</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[GST/PAYG/Super]])</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overdraft]])</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overhead]])</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Savings]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17">
         <v>29</v>
       </c>
       <c r="C17" s="4">
-        <f ca="1">SUMIF('1803'!N:N,Table4[[#This Row],[Week '#]],Table1[Suppliers])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Suppliers]])</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[GST/PAYG/Super]])</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overdraft]])</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overhead]])</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Savings]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18">
         <v>30</v>
       </c>
       <c r="C18" s="4">
-        <f ca="1">SUMIF('1803'!N:N,Table4[[#This Row],[Week '#]],Table1[Suppliers])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Suppliers]])</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[GST/PAYG/Super]])</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overdraft]])</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overhead]])</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Savings]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19">
         <v>31</v>
       </c>
       <c r="C19" s="4">
-        <f ca="1">SUMIF('1803'!N:N,Table4[[#This Row],[Week '#]],Table1[Suppliers])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Suppliers]])</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[GST/PAYG/Super]])</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overdraft]])</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overhead]])</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Savings]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20">
         <v>32</v>
       </c>
       <c r="C20" s="4">
-        <f ca="1">SUMIF('1803'!N:N,Table4[[#This Row],[Week '#]],Table1[Suppliers])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Suppliers]])</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[GST/PAYG/Super]])</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overdraft]])</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overhead]])</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Savings]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21">
         <v>33</v>
       </c>
       <c r="C21" s="4">
-        <f ca="1">SUMIF('1803'!N:N,Table4[[#This Row],[Week '#]],Table1[Suppliers])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Suppliers]])</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[GST/PAYG/Super]])</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overdraft]])</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overhead]])</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Savings]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22">
         <v>34</v>
       </c>
       <c r="C22" s="4">
-        <f ca="1">SUMIF('1803'!N:N,Table4[[#This Row],[Week '#]],Table1[Suppliers])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Suppliers]])</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[GST/PAYG/Super]])</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overdraft]])</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overhead]])</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Savings]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23">
         <v>35</v>
       </c>
       <c r="C23" s="4">
-        <f ca="1">SUMIF('1803'!N:N,Table4[[#This Row],[Week '#]],Table1[Suppliers])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Suppliers]])</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[GST/PAYG/Super]])</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overdraft]])</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overhead]])</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Savings]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24">
         <v>36</v>
       </c>
       <c r="C24" s="4">
-        <f ca="1">SUMIF('1803'!N:N,Table4[[#This Row],[Week '#]],Table1[Suppliers])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Suppliers]])</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[GST/PAYG/Super]])</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overdraft]])</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overhead]])</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Savings]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25">
         <v>37</v>
       </c>
       <c r="C25" s="4">
-        <f ca="1">SUMIF('1803'!N:N,Table4[[#This Row],[Week '#]],Table1[Suppliers])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Suppliers]])</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[GST/PAYG/Super]])</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overdraft]])</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overhead]])</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Savings]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26">
         <v>38</v>
       </c>
       <c r="C26" s="4">
-        <f ca="1">SUMIF('1803'!N:N,Table4[[#This Row],[Week '#]],Table1[Suppliers])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Suppliers]])</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[GST/PAYG/Super]])</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overdraft]])</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overhead]])</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Savings]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27">
         <v>39</v>
       </c>
       <c r="C27" s="4">
-        <f ca="1">SUMIF('1803'!N:N,Table4[[#This Row],[Week '#]],Table1[Suppliers])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Suppliers]])</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[GST/PAYG/Super]])</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overdraft]])</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overhead]])</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Savings]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B28">
         <v>40</v>
       </c>
       <c r="C28" s="4">
-        <f ca="1">SUMIF('1803'!N:N,Table4[[#This Row],[Week '#]],Table1[Suppliers])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Suppliers]])</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[GST/PAYG/Super]])</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overdraft]])</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overhead]])</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Savings]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29">
         <v>41</v>
       </c>
       <c r="C29" s="4">
-        <f ca="1">SUMIF('1803'!N:N,Table4[[#This Row],[Week '#]],Table1[Suppliers])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Suppliers]])</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[GST/PAYG/Super]])</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overdraft]])</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overhead]])</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Savings]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30">
         <v>42</v>
       </c>
       <c r="C30" s="4">
-        <f ca="1">SUMIF('1803'!N:N,Table4[[#This Row],[Week '#]],Table1[Suppliers])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Suppliers]])</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[GST/PAYG/Super]])</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overdraft]])</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overhead]])</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Savings]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31">
         <v>43</v>
       </c>
       <c r="C31" s="4">
-        <f ca="1">SUMIF('1803'!N:N,Table4[[#This Row],[Week '#]],Table1[Suppliers])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Suppliers]])</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[GST/PAYG/Super]])</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overdraft]])</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overhead]])</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Savings]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32">
         <v>44</v>
       </c>
       <c r="C32" s="4">
-        <f ca="1">SUMIF('1803'!N:N,Table4[[#This Row],[Week '#]],Table1[Suppliers])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Suppliers]])</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[GST/PAYG/Super]])</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overdraft]])</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overhead]])</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Savings]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33">
         <v>45</v>
       </c>
       <c r="C33" s="4">
-        <f ca="1">SUMIF('1803'!N:N,Table4[[#This Row],[Week '#]],Table1[Suppliers])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Suppliers]])</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[GST/PAYG/Super]])</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overdraft]])</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overhead]])</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Savings]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34">
         <v>46</v>
       </c>
       <c r="C34" s="4">
-        <f ca="1">SUMIF('1803'!N:N,Table4[[#This Row],[Week '#]],Table1[Suppliers])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Suppliers]])</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[GST/PAYG/Super]])</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overdraft]])</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overhead]])</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Savings]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35">
         <v>47</v>
       </c>
       <c r="C35" s="4">
-        <f ca="1">SUMIF('1803'!N:N,Table4[[#This Row],[Week '#]],Table1[Suppliers])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Suppliers]])</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[GST/PAYG/Super]])</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overdraft]])</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overhead]])</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Savings]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36">
         <v>48</v>
       </c>
       <c r="C36" s="4">
-        <f ca="1">SUMIF('1803'!N:N,Table4[[#This Row],[Week '#]],Table1[Suppliers])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Suppliers]])</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[GST/PAYG/Super]])</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overdraft]])</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overhead]])</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Savings]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B37">
         <v>49</v>
       </c>
       <c r="C37" s="4">
-        <f ca="1">SUMIF('1803'!N:N,Table4[[#This Row],[Week '#]],Table1[Suppliers])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Suppliers]])</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[GST/PAYG/Super]])</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overdraft]])</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overhead]])</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Savings]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B38">
         <v>50</v>
       </c>
       <c r="C38" s="4">
-        <f ca="1">SUMIF('1803'!N:N,Table4[[#This Row],[Week '#]],Table1[Suppliers])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Suppliers]])</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[GST/PAYG/Super]])</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overdraft]])</f>
+        <v>0</v>
+      </c>
+      <c r="F38" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overhead]])</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Savings]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B39">
         <v>51</v>
       </c>
       <c r="C39" s="4">
-        <f ca="1">SUMIF('1803'!N:N,Table4[[#This Row],[Week '#]],Table1[Suppliers])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Suppliers]])</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[GST/PAYG/Super]])</f>
+        <v>0</v>
+      </c>
+      <c r="E39" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overdraft]])</f>
+        <v>0</v>
+      </c>
+      <c r="F39" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overhead]])</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Savings]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B40">
         <v>52</v>
       </c>
       <c r="C40" s="4">
-        <f ca="1">SUMIF('1803'!N:N,Table4[[#This Row],[Week '#]],Table1[Suppliers])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Suppliers]])</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[GST/PAYG/Super]])</f>
+        <v>0</v>
+      </c>
+      <c r="E40" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overdraft]])</f>
+        <v>0</v>
+      </c>
+      <c r="F40" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overhead]])</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Savings]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B41">
         <v>53</v>
       </c>
       <c r="C41" s="4">
-        <f ca="1">SUMIF('1803'!N:N,Table4[[#This Row],[Week '#]],Table1[Suppliers])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Suppliers]])</f>
+        <v>0</v>
+      </c>
+      <c r="D41" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[GST/PAYG/Super]])</f>
+        <v>0</v>
+      </c>
+      <c r="E41" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overdraft]])</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overhead]])</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Savings]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B42">
         <v>54</v>
       </c>
       <c r="C42" s="4">
-        <f ca="1">SUMIF('1803'!N:N,Table4[[#This Row],[Week '#]],Table1[Suppliers])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Suppliers]])</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[GST/PAYG/Super]])</f>
+        <v>0</v>
+      </c>
+      <c r="E42" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overdraft]])</f>
+        <v>0</v>
+      </c>
+      <c r="F42" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overhead]])</f>
+        <v>0</v>
+      </c>
+      <c r="G42" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Savings]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B43">
         <v>55</v>
       </c>
       <c r="C43" s="4">
-        <f ca="1">SUMIF('1803'!N:N,Table4[[#This Row],[Week '#]],Table1[Suppliers])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Suppliers]])</f>
+        <v>0</v>
+      </c>
+      <c r="D43" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[GST/PAYG/Super]])</f>
+        <v>0</v>
+      </c>
+      <c r="E43" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overdraft]])</f>
+        <v>0</v>
+      </c>
+      <c r="F43" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overhead]])</f>
+        <v>0</v>
+      </c>
+      <c r="G43" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Savings]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B44">
         <v>56</v>
       </c>
       <c r="C44" s="4">
-        <f ca="1">SUMIF('1803'!N:N,Table4[[#This Row],[Week '#]],Table1[Suppliers])</f>
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Suppliers]])</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[GST/PAYG/Super]])</f>
+        <v>0</v>
+      </c>
+      <c r="E44" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overdraft]])</f>
+        <v>0</v>
+      </c>
+      <c r="F44" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Overhead]])</f>
+        <v>0</v>
+      </c>
+      <c r="G44" s="4">
+        <f>SUMIF(Table1[[#Data],[Weeklookup]],Table4[[#This Row],[Week '#]],Table1[[#Data],[Savings]])</f>
         <v>0</v>
       </c>
     </row>
@@ -1339,28 +2016,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O13" sqref="O13"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="74.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="12" width="8.88671875" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="14" width="11.33203125" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.3046875" customWidth="1"/>
+    <col min="4" max="4" width="74.07421875" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="8.84375" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="14" width="11.3046875" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.4609375" customWidth="1"/>
     <col min="17" max="18" width="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
       <c r="D2" s="10" t="s">
         <v>0</v>
@@ -1403,7 +2080,7 @@
       </c>
       <c r="T2" s="3"/>
     </row>
-    <row r="3" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="1"/>
       <c r="D3" s="11"/>
       <c r="E3" s="15"/>
@@ -1425,7 +2102,7 @@
       <c r="S3" s="20"/>
       <c r="T3" s="3"/>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -1484,7 +2161,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>1871</v>
       </c>
@@ -1541,7 +2218,7 @@
         <v>-8.4792640692640475</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>1879</v>
       </c>
@@ -1598,7 +2275,7 @@
         <v>-16.958528138528095</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>1880</v>
       </c>
@@ -1655,7 +2332,7 @@
         <v>-36.997392496391967</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>1886</v>
       </c>
@@ -1712,7 +2389,7 @@
         <v>-45.2227417027417</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>1887</v>
       </c>
@@ -1769,7 +2446,7 @@
         <v>-8.4792640692640475</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>1888</v>
       </c>
@@ -1826,7 +2503,7 @@
         <v>15.215050505050499</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>1889</v>
       </c>
@@ -1883,7 +2560,7 @@
         <v>13.77736507936504</v>
       </c>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>1890</v>
       </c>
@@ -1940,7 +2617,7 @@
         <v>-15.481532987012997</v>
       </c>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B13" s="5">
         <v>1893</v>
       </c>
@@ -2000,7 +2677,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B14" s="5">
         <v>1894</v>
       </c>
@@ -2060,7 +2737,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B15">
         <v>1895</v>
       </c>
@@ -2117,7 +2794,7 @@
         <v>-10.710649350649334</v>
       </c>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B16">
         <v>1896</v>
       </c>
@@ -2174,7 +2851,7 @@
         <v>-5.6528427128427126</v>
       </c>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B17">
         <v>1897</v>
       </c>
@@ -2231,7 +2908,7 @@
         <v>-382.72352813852808</v>
       </c>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B18">
         <v>1898</v>
       </c>
@@ -2288,7 +2965,7 @@
         <v>100.68862914862916</v>
       </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B19">
         <v>1899</v>
       </c>
@@ -2345,7 +3022,7 @@
         <v>105.72583694083687</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B20">
         <v>1900</v>
       </c>
@@ -2402,7 +3079,7 @@
         <v>182.72267965367996</v>
       </c>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B21">
         <v>1901</v>
       </c>
@@ -2459,7 +3136,7 @@
         <v>8.6943145743145749</v>
       </c>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B22">
         <v>1903</v>
       </c>
@@ -2516,7 +3193,7 @@
         <v>300.22826839826848</v>
       </c>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B23">
         <v>1904</v>
       </c>
@@ -2573,7 +3250,7 @@
         <v>216.6305223665222</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B24">
         <v>1907</v>
       </c>
@@ -2630,7 +3307,7 @@
         <v>-13.685829725829706</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B25">
         <v>1911</v>
       </c>
@@ -2687,7 +3364,7 @@
         <v>-16.958528138528095</v>
       </c>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B26">
         <v>1912</v>
       </c>
@@ -2744,7 +3421,7 @@
         <v>-38.08230880230883</v>
       </c>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B27">
         <v>1913</v>
       </c>
@@ -2801,7 +3478,7 @@
         <v>197.90936507936522</v>
       </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B28">
         <v>1919</v>
       </c>
@@ -2858,7 +3535,7 @@
         <v>-84.669264069264045</v>
       </c>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B29">
         <v>1920</v>
       </c>
@@ -2915,7 +3592,7 @@
         <v>-7.6113708513707934</v>
       </c>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B30">
         <v>1922</v>
       </c>
@@ -2972,7 +3649,7 @@
         <v>-4.9906854256854274</v>
       </c>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B31" s="5">
         <v>1923</v>
       </c>
@@ -3032,7 +3709,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B32">
         <v>1924</v>
       </c>
@@ -3089,7 +3766,7 @@
         <v>-11.305685425685425</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B33">
         <v>1925</v>
       </c>
@@ -3146,7 +3823,7 @@
         <v>257.64899422799408</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B34">
         <v>1926</v>
       </c>
@@ -3203,7 +3880,7 @@
         <v>141.91088744588751</v>
       </c>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B35">
         <v>1927</v>
       </c>
@@ -3260,7 +3937,7 @@
         <v>16.11750886002892</v>
       </c>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B36" s="5">
         <v>1928</v>
       </c>
@@ -3320,7 +3997,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B37">
         <v>1929</v>
       </c>
@@ -3377,7 +4054,7 @@
         <v>1385.8675050505053</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B38">
         <v>1930</v>
       </c>
@@ -3434,7 +4111,7 @@
         <v>197.62662914862915</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.4">
       <c r="N39">
         <f>Table1[[#This Row],[Week]]</f>
         <v>0</v>
@@ -3445,7 +4122,7 @@
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B41" s="5">
         <v>1878</v>
       </c>
@@ -3460,7 +4137,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B42">
         <v>1860</v>
       </c>
@@ -3491,34 +4168,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:T61"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="74.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.3046875" customWidth="1"/>
+    <col min="2" max="2" width="10.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="74.07421875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="9" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="8" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="9" width="12.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="9" width="12.69140625" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="7" customWidth="1" outlineLevel="1"/>
     <col min="11" max="12" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="14" width="11.88671875" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="10.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.84375" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="10.84375" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.69140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="12.69140625" style="4" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
       <c r="D2" s="10" t="s">
         <v>0</v>
@@ -3561,7 +4238,7 @@
       </c>
       <c r="T2" s="3"/>
     </row>
-    <row r="3" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="1"/>
       <c r="D3" s="11"/>
       <c r="E3" s="15"/>
@@ -3583,7 +4260,7 @@
       <c r="S3" s="20"/>
       <c r="T3" s="3"/>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -3642,7 +4319,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>1988</v>
       </c>
@@ -3699,7 +4376,7 @@
         <v>-22.61137085137085</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>1989</v>
       </c>
@@ -3756,7 +4433,7 @@
         <v>121.53905050505057</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>1990</v>
       </c>
@@ -3813,7 +4490,7 @@
         <v>-8.4792640692640475</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B8" s="5">
         <v>1992</v>
       </c>
@@ -3873,7 +4550,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B9" s="5">
         <v>1993</v>
       </c>
@@ -3933,7 +4610,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>2013</v>
       </c>
@@ -3990,7 +4667,7 @@
         <v>-8.4792640692640475</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>2014</v>
       </c>
@@ -4047,7 +4724,7 @@
         <v>-5.6528427128427126</v>
       </c>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>2015</v>
       </c>
@@ -4104,7 +4781,7 @@
         <v>-1.052842712842704</v>
       </c>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B13">
         <v>2016</v>
       </c>
@@ -4161,7 +4838,7 @@
         <v>-1.6528427128426983</v>
       </c>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B14">
         <v>2017</v>
       </c>
@@ -4218,7 +4895,7 @@
         <v>-7.0610533910533775</v>
       </c>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B15">
         <v>2018</v>
       </c>
@@ -4275,7 +4952,7 @@
         <v>10.446735930735969</v>
       </c>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B16" s="5">
         <v>2024</v>
       </c>
@@ -4335,271 +5012,271 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="14:14" x14ac:dyDescent="0.4">
       <c r="N17">
         <f>Table3[[#This Row],[Week]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="14:14" x14ac:dyDescent="0.4">
       <c r="N18">
         <f>Table3[[#This Row],[Week]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="14:14" x14ac:dyDescent="0.4">
       <c r="N19">
         <f>Table3[[#This Row],[Week]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="14:14" x14ac:dyDescent="0.4">
       <c r="N20">
         <f>Table3[[#This Row],[Week]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="14:14" x14ac:dyDescent="0.4">
       <c r="N21">
         <f>Table3[[#This Row],[Week]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="14:14" x14ac:dyDescent="0.4">
       <c r="N22">
         <f>Table3[[#This Row],[Week]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="14:14" x14ac:dyDescent="0.4">
       <c r="N23">
         <f>Table3[[#This Row],[Week]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="14:14" x14ac:dyDescent="0.4">
       <c r="N24">
         <f>Table3[[#This Row],[Week]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="14:14" x14ac:dyDescent="0.4">
       <c r="N25">
         <f>Table3[[#This Row],[Week]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="14:14" x14ac:dyDescent="0.4">
       <c r="N26">
         <f>Table3[[#This Row],[Week]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="14:14" x14ac:dyDescent="0.4">
       <c r="N27">
         <f>Table3[[#This Row],[Week]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="14:14" x14ac:dyDescent="0.4">
       <c r="N28">
         <f>Table3[[#This Row],[Week]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="14:14" x14ac:dyDescent="0.4">
       <c r="N29">
         <f>Table3[[#This Row],[Week]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="14:14" x14ac:dyDescent="0.4">
       <c r="N30">
         <f>Table3[[#This Row],[Week]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="14:14" x14ac:dyDescent="0.4">
       <c r="N31">
         <f>Table3[[#This Row],[Week]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="14:14" x14ac:dyDescent="0.4">
       <c r="N32">
         <f>Table3[[#This Row],[Week]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="14:14" x14ac:dyDescent="0.4">
       <c r="N33">
         <f>Table3[[#This Row],[Week]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="14:14" x14ac:dyDescent="0.4">
       <c r="N34">
         <f>Table3[[#This Row],[Week]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="14:14" x14ac:dyDescent="0.4">
       <c r="N35">
         <f>Table3[[#This Row],[Week]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="14:14" x14ac:dyDescent="0.4">
       <c r="N36">
         <f>Table3[[#This Row],[Week]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="14:14" x14ac:dyDescent="0.4">
       <c r="N37">
         <f>Table3[[#This Row],[Week]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="14:14" x14ac:dyDescent="0.4">
       <c r="N38">
         <f>Table3[[#This Row],[Week]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="14:14" x14ac:dyDescent="0.4">
       <c r="N39">
         <f>Table3[[#This Row],[Week]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="14:14" x14ac:dyDescent="0.4">
       <c r="N40">
         <f>Table3[[#This Row],[Week]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="14:14" x14ac:dyDescent="0.4">
       <c r="N41">
         <f>Table3[[#This Row],[Week]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="14:14" x14ac:dyDescent="0.4">
       <c r="N42">
         <f>Table3[[#This Row],[Week]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="14:14" x14ac:dyDescent="0.4">
       <c r="N43">
         <f>Table3[[#This Row],[Week]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="14:14" x14ac:dyDescent="0.4">
       <c r="N44">
         <f>Table3[[#This Row],[Week]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="14:14" x14ac:dyDescent="0.4">
       <c r="N45">
         <f>Table3[[#This Row],[Week]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="14:14" x14ac:dyDescent="0.4">
       <c r="N46">
         <f>Table3[[#This Row],[Week]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="14:14" x14ac:dyDescent="0.4">
       <c r="N47">
         <f>Table3[[#This Row],[Week]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="14:14" x14ac:dyDescent="0.4">
       <c r="N48">
         <f>Table3[[#This Row],[Week]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="14:14" x14ac:dyDescent="0.4">
       <c r="N49">
         <f>Table3[[#This Row],[Week]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="14:14" x14ac:dyDescent="0.4">
       <c r="N50">
         <f>Table3[[#This Row],[Week]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="14:14" x14ac:dyDescent="0.4">
       <c r="N51">
         <f>Table3[[#This Row],[Week]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="14:14" x14ac:dyDescent="0.4">
       <c r="N52">
         <f>Table3[[#This Row],[Week]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="14:14" x14ac:dyDescent="0.4">
       <c r="N53">
         <f>Table3[[#This Row],[Week]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="14:14" x14ac:dyDescent="0.4">
       <c r="N54">
         <f>Table3[[#This Row],[Week]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="14:14" x14ac:dyDescent="0.4">
       <c r="N55">
         <f>Table3[[#This Row],[Week]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="14:14" x14ac:dyDescent="0.4">
       <c r="N56">
         <f>Table3[[#This Row],[Week]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="14:14" x14ac:dyDescent="0.4">
       <c r="N57">
         <f>Table3[[#This Row],[Week]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="14:14" x14ac:dyDescent="0.4">
       <c r="N58">
         <f>Table3[[#This Row],[Week]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="14:14" x14ac:dyDescent="0.4">
       <c r="N59">
         <f>Table3[[#This Row],[Week]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="14:14" x14ac:dyDescent="0.4">
       <c r="N60">
         <f>Table3[[#This Row],[Week]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="14:14" x14ac:dyDescent="0.4">
       <c r="N61">
         <f>Table3[[#This Row],[Week]]</f>
         <v>0</v>
@@ -4621,36 +5298,36 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:T61"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="74.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.53515625" customWidth="1"/>
+    <col min="2" max="2" width="10.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="74.07421875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.69140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.88671875" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.84375" customWidth="1"/>
+    <col min="15" max="15" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.07421875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
       <c r="D2" s="10" t="s">
         <v>0</v>
@@ -4696,7 +5373,7 @@
         <v>60306.890000000014</v>
       </c>
     </row>
-    <row r="3" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="1"/>
       <c r="D3" s="11"/>
       <c r="E3" s="15"/>
@@ -4718,7 +5395,7 @@
       <c r="S3" s="20"/>
       <c r="T3" s="3"/>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -4777,7 +5454,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B5" s="5">
         <v>2019</v>
       </c>
@@ -4837,7 +5514,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>2020</v>
       </c>
@@ -4894,7 +5571,7 @@
         <v>175.50114574314603</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B7" s="5">
         <v>2021</v>
       </c>
@@ -4954,7 +5631,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B8" s="5">
         <v>2022</v>
       </c>
@@ -5014,7 +5691,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B9" s="5">
         <v>2023</v>
       </c>
@@ -5074,7 +5751,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>2026</v>
       </c>
@@ -5131,7 +5808,7 @@
         <v>3718.0380216450212</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>2029</v>
       </c>
@@ -5188,7 +5865,7 @@
         <v>5790.4354372294383</v>
       </c>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>2052</v>
       </c>
@@ -5245,7 +5922,7 @@
         <v>-19.821093795093759</v>
       </c>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B13">
         <v>2053</v>
       </c>
@@ -5302,7 +5979,7 @@
         <v>52.988629148629229</v>
       </c>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B14" s="5">
         <v>2062</v>
       </c>
@@ -5362,7 +6039,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B15" s="5">
         <v>2063</v>
       </c>
@@ -5422,7 +6099,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B16" s="5">
         <v>2064</v>
       </c>
@@ -5482,7 +6159,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B17">
         <v>2065</v>
       </c>
@@ -5539,7 +6216,7 @@
         <v>44.837692640692467</v>
       </c>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B18" s="5">
         <v>2066</v>
       </c>
@@ -5599,7 +6276,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B19" s="5">
         <v>2067</v>
       </c>
@@ -5659,7 +6336,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B20">
         <v>2068</v>
       </c>
@@ -5716,7 +6393,7 @@
         <v>-3.9915151515151592</v>
       </c>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B21">
         <v>2069</v>
       </c>
@@ -5773,7 +6450,7 @@
         <v>-11.391515151515136</v>
       </c>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B22" s="5">
         <v>2070</v>
       </c>
@@ -5833,7 +6510,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B23">
         <v>2071</v>
       </c>
@@ -5890,7 +6567,7 @@
         <v>8.9963275613275187</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B24" s="5">
         <v>2072</v>
       </c>
@@ -5950,7 +6627,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B25" s="5">
         <v>2073</v>
       </c>
@@ -6010,7 +6687,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B26" s="5">
         <v>2074</v>
       </c>
@@ -6070,7 +6747,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B27">
         <v>2075</v>
       </c>
@@ -6127,7 +6804,7 @@
         <v>54.222000000000037</v>
       </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B28" s="5">
         <v>2079</v>
       </c>
@@ -6187,7 +6864,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B29">
         <v>2081</v>
       </c>
@@ -6244,7 +6921,7 @@
         <v>-11.43486002885993</v>
       </c>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B30" s="5">
         <v>2082</v>
       </c>
@@ -6304,7 +6981,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B31">
         <v>2083</v>
       </c>
@@ -6361,7 +7038,7 @@
         <v>-13.685829725829706</v>
       </c>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B32">
         <v>2084</v>
       </c>
@@ -6418,7 +7095,7 @@
         <v>-3.6858297258297057</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B33">
         <v>2094</v>
       </c>
@@ -6475,7 +7152,7 @@
         <v>-7.793702741702873</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B34">
         <v>2099</v>
       </c>
@@ -6532,7 +7209,7 @@
         <v>-37.07386580086677</v>
       </c>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B35">
         <v>2100</v>
       </c>
@@ -6589,7 +7266,7 @@
         <v>205.51727128427115</v>
       </c>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B36">
         <v>2106</v>
       </c>
@@ -6646,7 +7323,7 @@
         <v>-5.4906349206349887</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B37">
         <v>2111</v>
       </c>
@@ -6703,7 +7380,7 @@
         <v>-64.001106782106774</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B38">
         <v>2112</v>
       </c>
@@ -6760,7 +7437,7 @@
         <v>117.14846608946618</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.4">
       <c r="N39">
         <f>Table37[[#This Row],[Week]]</f>
         <v>0</v>
@@ -6771,7 +7448,7 @@
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.4">
       <c r="N40">
         <f>Table37[[#This Row],[Week]]</f>
         <v>0</v>
@@ -6782,7 +7459,7 @@
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.4">
       <c r="N41">
         <f>Table37[[#This Row],[Week]]</f>
         <v>0</v>
@@ -6793,7 +7470,7 @@
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.4">
       <c r="N42">
         <f>Table37[[#This Row],[Week]]</f>
         <v>0</v>
@@ -6804,7 +7481,7 @@
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.4">
       <c r="N43">
         <f>Table37[[#This Row],[Week]]</f>
         <v>0</v>
@@ -6815,7 +7492,7 @@
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.4">
       <c r="N44">
         <f>Table37[[#This Row],[Week]]</f>
         <v>0</v>
@@ -6826,7 +7503,7 @@
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.4">
       <c r="N45">
         <f>Table37[[#This Row],[Week]]</f>
         <v>0</v>
@@ -6837,7 +7514,7 @@
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.4">
       <c r="N46">
         <f>Table37[[#This Row],[Week]]</f>
         <v>0</v>
@@ -6848,7 +7525,7 @@
       <c r="R46" s="4"/>
       <c r="S46" s="4"/>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.4">
       <c r="N47">
         <f>Table37[[#This Row],[Week]]</f>
         <v>0</v>
@@ -6859,7 +7536,7 @@
       <c r="R47" s="4"/>
       <c r="S47" s="4"/>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.4">
       <c r="N48">
         <f>Table37[[#This Row],[Week]]</f>
         <v>0</v>
@@ -6870,7 +7547,7 @@
       <c r="R48" s="4"/>
       <c r="S48" s="4"/>
     </row>
-    <row r="49" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N49">
         <f>Table37[[#This Row],[Week]]</f>
         <v>0</v>
@@ -6881,7 +7558,7 @@
       <c r="R49" s="4"/>
       <c r="S49" s="4"/>
     </row>
-    <row r="50" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N50">
         <f>Table37[[#This Row],[Week]]</f>
         <v>0</v>
@@ -6892,7 +7569,7 @@
       <c r="R50" s="4"/>
       <c r="S50" s="4"/>
     </row>
-    <row r="51" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N51">
         <f>Table37[[#This Row],[Week]]</f>
         <v>0</v>
@@ -6903,7 +7580,7 @@
       <c r="R51" s="4"/>
       <c r="S51" s="4"/>
     </row>
-    <row r="52" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N52">
         <f>Table37[[#This Row],[Week]]</f>
         <v>0</v>
@@ -6914,7 +7591,7 @@
       <c r="R52" s="4"/>
       <c r="S52" s="4"/>
     </row>
-    <row r="53" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N53">
         <f>Table37[[#This Row],[Week]]</f>
         <v>0</v>
@@ -6925,7 +7602,7 @@
       <c r="R53" s="4"/>
       <c r="S53" s="4"/>
     </row>
-    <row r="54" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N54">
         <f>Table37[[#This Row],[Week]]</f>
         <v>0</v>
@@ -6936,7 +7613,7 @@
       <c r="R54" s="4"/>
       <c r="S54" s="4"/>
     </row>
-    <row r="55" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N55">
         <f>Table37[[#This Row],[Week]]</f>
         <v>0</v>
@@ -6947,7 +7624,7 @@
       <c r="R55" s="4"/>
       <c r="S55" s="4"/>
     </row>
-    <row r="56" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N56">
         <f>Table37[[#This Row],[Week]]</f>
         <v>0</v>
@@ -6958,7 +7635,7 @@
       <c r="R56" s="4"/>
       <c r="S56" s="4"/>
     </row>
-    <row r="57" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N57">
         <f>Table37[[#This Row],[Week]]</f>
         <v>0</v>
@@ -6969,7 +7646,7 @@
       <c r="R57" s="4"/>
       <c r="S57" s="4"/>
     </row>
-    <row r="58" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N58">
         <f>Table37[[#This Row],[Week]]</f>
         <v>0</v>
@@ -6980,7 +7657,7 @@
       <c r="R58" s="4"/>
       <c r="S58" s="4"/>
     </row>
-    <row r="59" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N59">
         <f>Table37[[#This Row],[Week]]</f>
         <v>0</v>
@@ -6991,7 +7668,7 @@
       <c r="R59" s="4"/>
       <c r="S59" s="4"/>
     </row>
-    <row r="60" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N60">
         <f>Table37[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7002,7 +7679,7 @@
       <c r="R60" s="4"/>
       <c r="S60" s="4"/>
     </row>
-    <row r="61" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N61">
         <f>Table37[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7029,36 +7706,36 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:T61"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="74.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.84375" customWidth="1"/>
+    <col min="2" max="2" width="10.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="74.07421875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.69140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.88671875" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.84375" customWidth="1"/>
+    <col min="15" max="15" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.07421875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.84375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
       <c r="D2" s="10" t="s">
         <v>0</v>
@@ -7101,7 +7778,7 @@
       </c>
       <c r="T2" s="3"/>
     </row>
-    <row r="3" spans="2:20" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:20" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="1"/>
       <c r="D3" s="11"/>
       <c r="E3" s="15"/>
@@ -7123,7 +7800,7 @@
       <c r="S3" s="20"/>
       <c r="T3" s="3"/>
     </row>
-    <row r="4" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -7182,7 +7859,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.4">
       <c r="N5">
         <f>Table38[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7193,7 +7870,7 @@
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.4">
       <c r="N6">
         <f>Table38[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7204,7 +7881,7 @@
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.4">
       <c r="N7">
         <f>Table38[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7215,7 +7892,7 @@
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.4">
       <c r="N8">
         <f>Table38[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7226,7 +7903,7 @@
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.4">
       <c r="N9">
         <f>Table38[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7237,7 +7914,7 @@
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.4">
       <c r="N10">
         <f>Table38[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7248,7 +7925,7 @@
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.4">
       <c r="N11">
         <f>Table38[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7259,7 +7936,7 @@
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.4">
       <c r="N12">
         <f>Table38[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7270,7 +7947,7 @@
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.4">
       <c r="N13">
         <f>Table38[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7281,7 +7958,7 @@
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.4">
       <c r="N14">
         <f>Table38[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7292,7 +7969,7 @@
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.4">
       <c r="N15">
         <f>Table38[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7303,7 +7980,7 @@
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.4">
       <c r="N16">
         <f>Table38[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7314,7 +7991,7 @@
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N17">
         <f>Table38[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7325,7 +8002,7 @@
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N18">
         <f>Table38[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7336,7 +8013,7 @@
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
     </row>
-    <row r="19" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N19">
         <f>Table38[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7347,7 +8024,7 @@
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
     </row>
-    <row r="20" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N20">
         <f>Table38[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7358,7 +8035,7 @@
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
     </row>
-    <row r="21" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N21">
         <f>Table38[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7369,7 +8046,7 @@
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
     </row>
-    <row r="22" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N22">
         <f>Table38[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7380,7 +8057,7 @@
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
     </row>
-    <row r="23" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N23">
         <f>Table38[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7391,7 +8068,7 @@
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
     </row>
-    <row r="24" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N24">
         <f>Table38[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7402,7 +8079,7 @@
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
     </row>
-    <row r="25" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N25">
         <f>Table38[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7413,7 +8090,7 @@
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
     </row>
-    <row r="26" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N26">
         <f>Table38[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7424,7 +8101,7 @@
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
     </row>
-    <row r="27" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N27">
         <f>Table38[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7435,7 +8112,7 @@
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
     </row>
-    <row r="28" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N28">
         <f>Table38[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7446,7 +8123,7 @@
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
     </row>
-    <row r="29" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N29">
         <f>Table38[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7457,7 +8134,7 @@
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
     </row>
-    <row r="30" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N30">
         <f>Table38[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7468,7 +8145,7 @@
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
     </row>
-    <row r="31" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N31">
         <f>Table38[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7479,7 +8156,7 @@
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
     </row>
-    <row r="32" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N32">
         <f>Table38[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7490,7 +8167,7 @@
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
     </row>
-    <row r="33" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N33">
         <f>Table38[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7501,7 +8178,7 @@
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
     </row>
-    <row r="34" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N34">
         <f>Table38[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7512,7 +8189,7 @@
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
     </row>
-    <row r="35" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N35">
         <f>Table38[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7523,7 +8200,7 @@
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
     </row>
-    <row r="36" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N36">
         <f>Table38[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7534,7 +8211,7 @@
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
     </row>
-    <row r="37" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N37">
         <f>Table38[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7545,7 +8222,7 @@
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
     </row>
-    <row r="38" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N38">
         <f>Table38[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7556,7 +8233,7 @@
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
     </row>
-    <row r="39" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N39">
         <f>Table38[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7567,7 +8244,7 @@
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
     </row>
-    <row r="40" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N40">
         <f>Table38[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7578,7 +8255,7 @@
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
     </row>
-    <row r="41" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N41">
         <f>Table38[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7589,7 +8266,7 @@
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
     </row>
-    <row r="42" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N42">
         <f>Table38[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7600,7 +8277,7 @@
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
     </row>
-    <row r="43" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N43">
         <f>Table38[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7611,7 +8288,7 @@
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
     </row>
-    <row r="44" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N44">
         <f>Table38[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7622,7 +8299,7 @@
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
     </row>
-    <row r="45" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N45">
         <f>Table38[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7633,7 +8310,7 @@
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
     </row>
-    <row r="46" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N46">
         <f>Table38[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7644,7 +8321,7 @@
       <c r="R46" s="4"/>
       <c r="S46" s="4"/>
     </row>
-    <row r="47" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N47">
         <f>Table38[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7655,7 +8332,7 @@
       <c r="R47" s="4"/>
       <c r="S47" s="4"/>
     </row>
-    <row r="48" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N48">
         <f>Table38[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7666,7 +8343,7 @@
       <c r="R48" s="4"/>
       <c r="S48" s="4"/>
     </row>
-    <row r="49" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N49">
         <f>Table38[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7677,7 +8354,7 @@
       <c r="R49" s="4"/>
       <c r="S49" s="4"/>
     </row>
-    <row r="50" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N50">
         <f>Table38[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7688,7 +8365,7 @@
       <c r="R50" s="4"/>
       <c r="S50" s="4"/>
     </row>
-    <row r="51" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N51">
         <f>Table38[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7699,7 +8376,7 @@
       <c r="R51" s="4"/>
       <c r="S51" s="4"/>
     </row>
-    <row r="52" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N52">
         <f>Table38[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7710,7 +8387,7 @@
       <c r="R52" s="4"/>
       <c r="S52" s="4"/>
     </row>
-    <row r="53" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N53">
         <f>Table38[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7721,7 +8398,7 @@
       <c r="R53" s="4"/>
       <c r="S53" s="4"/>
     </row>
-    <row r="54" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N54">
         <f>Table38[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7732,7 +8409,7 @@
       <c r="R54" s="4"/>
       <c r="S54" s="4"/>
     </row>
-    <row r="55" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N55">
         <f>Table38[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7743,7 +8420,7 @@
       <c r="R55" s="4"/>
       <c r="S55" s="4"/>
     </row>
-    <row r="56" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N56">
         <f>Table38[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7754,7 +8431,7 @@
       <c r="R56" s="4"/>
       <c r="S56" s="4"/>
     </row>
-    <row r="57" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N57">
         <f>Table38[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7765,7 +8442,7 @@
       <c r="R57" s="4"/>
       <c r="S57" s="4"/>
     </row>
-    <row r="58" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N58">
         <f>Table38[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7776,7 +8453,7 @@
       <c r="R58" s="4"/>
       <c r="S58" s="4"/>
     </row>
-    <row r="59" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N59">
         <f>Table38[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7787,7 +8464,7 @@
       <c r="R59" s="4"/>
       <c r="S59" s="4"/>
     </row>
-    <row r="60" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N60">
         <f>Table38[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7798,7 +8475,7 @@
       <c r="R60" s="4"/>
       <c r="S60" s="4"/>
     </row>
-    <row r="61" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="14:19" x14ac:dyDescent="0.4">
       <c r="N61">
         <f>Table38[[#This Row],[Week]]</f>
         <v>0</v>
@@ -7825,35 +8502,35 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:S61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5:S61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="74.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.84375" customWidth="1"/>
+    <col min="2" max="2" width="10.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="74.07421875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.69140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.07421875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.84375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
       <c r="D2" s="10" t="s">
         <v>0</v>
@@ -7895,7 +8572,7 @@
       </c>
       <c r="S2" s="3"/>
     </row>
-    <row r="3" spans="2:19" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:19" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="1"/>
       <c r="D3" s="11"/>
       <c r="E3" s="15"/>
@@ -7916,7 +8593,7 @@
       <c r="R3" s="20"/>
       <c r="S3" s="3"/>
     </row>
-    <row r="4" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -7972,399 +8649,399 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.4">
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.4">
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.4">
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.4">
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.4">
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.4">
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.4">
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.4">
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.4">
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.4">
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.4">
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.4">
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="14:18" x14ac:dyDescent="0.4">
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="14:18" x14ac:dyDescent="0.4">
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="14:18" x14ac:dyDescent="0.4">
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="14:18" x14ac:dyDescent="0.4">
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="14:18" x14ac:dyDescent="0.4">
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="14:18" x14ac:dyDescent="0.4">
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="14:18" x14ac:dyDescent="0.4">
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="14:18" x14ac:dyDescent="0.4">
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
     </row>
-    <row r="25" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="14:18" x14ac:dyDescent="0.4">
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
     </row>
-    <row r="26" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="14:18" x14ac:dyDescent="0.4">
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="14:18" x14ac:dyDescent="0.4">
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
     </row>
-    <row r="28" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="14:18" x14ac:dyDescent="0.4">
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="14:18" x14ac:dyDescent="0.4">
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
     </row>
-    <row r="30" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="14:18" x14ac:dyDescent="0.4">
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="14:18" x14ac:dyDescent="0.4">
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="14:18" x14ac:dyDescent="0.4">
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="14:18" x14ac:dyDescent="0.4">
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="14:18" x14ac:dyDescent="0.4">
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
     </row>
-    <row r="35" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="14:18" x14ac:dyDescent="0.4">
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
     </row>
-    <row r="36" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="14:18" x14ac:dyDescent="0.4">
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="14:18" x14ac:dyDescent="0.4">
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
     </row>
-    <row r="38" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="14:18" x14ac:dyDescent="0.4">
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="14:18" x14ac:dyDescent="0.4">
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="14:18" x14ac:dyDescent="0.4">
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
     </row>
-    <row r="41" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="14:18" x14ac:dyDescent="0.4">
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
     </row>
-    <row r="42" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="14:18" x14ac:dyDescent="0.4">
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="14:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="14:18" x14ac:dyDescent="0.4">
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" spans="14:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="14:18" x14ac:dyDescent="0.4">
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" spans="14:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="14:18" x14ac:dyDescent="0.4">
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" spans="14:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="14:18" x14ac:dyDescent="0.4">
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="14:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="14:18" x14ac:dyDescent="0.4">
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="14:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="14:18" x14ac:dyDescent="0.4">
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="14:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="14:18" x14ac:dyDescent="0.4">
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
     </row>
-    <row r="50" spans="14:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="14:18" x14ac:dyDescent="0.4">
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="14:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="14:18" x14ac:dyDescent="0.4">
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
     </row>
-    <row r="52" spans="14:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="14:18" x14ac:dyDescent="0.4">
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
     </row>
-    <row r="53" spans="14:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="14:18" x14ac:dyDescent="0.4">
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
       <c r="P53" s="4"/>
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
     </row>
-    <row r="54" spans="14:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="14:18" x14ac:dyDescent="0.4">
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
     </row>
-    <row r="55" spans="14:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="14:18" x14ac:dyDescent="0.4">
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
     </row>
-    <row r="56" spans="14:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="14:18" x14ac:dyDescent="0.4">
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
       <c r="P56" s="4"/>
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
     </row>
-    <row r="57" spans="14:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="14:18" x14ac:dyDescent="0.4">
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
       <c r="P57" s="4"/>
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
     </row>
-    <row r="58" spans="14:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="14:18" x14ac:dyDescent="0.4">
       <c r="N58" s="4"/>
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
     </row>
-    <row r="59" spans="14:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="14:18" x14ac:dyDescent="0.4">
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
       <c r="P59" s="4"/>
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
     </row>
-    <row r="60" spans="14:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="14:18" x14ac:dyDescent="0.4">
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
       <c r="P60" s="4"/>
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
     </row>
-    <row r="61" spans="14:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="14:18" x14ac:dyDescent="0.4">
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
       <c r="P61" s="4"/>
